--- a/glTFparameterExtraction/glTF-Wall-Dimension-GUI/output/distances_data.xlsx
+++ b/glTFparameterExtraction/glTF-Wall-Dimension-GUI/output/distances_data.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.980964660644531</v>
+        <v>0.3580865859985352</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3006668090820312</v>
+        <v>3.7415771484375</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.876558482646942</v>
+        <v>3.007984787225723</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.920677683355442</v>
+        <v>4.814104074587831</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.892229111632004</v>
+        <v>4.80076785919618</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.911483312950244</v>
+        <v>3.029224072803705</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.99230261370355</v>
+        <v>3.758673377773304</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.99230261370355</v>
+        <v>3.758673377773304</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.911483312950244</v>
+        <v>3.029224072803705</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.892229111632004</v>
+        <v>4.80076785919618</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.920677683355442</v>
+        <v>4.814104074587831</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.876558482646942</v>
+        <v>3.007984787225723</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3006668090820312</v>
+        <v>3.7415771484375</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.892229111632004</v>
+        <v>4.80076785919618</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.911483312950244</v>
+        <v>3.029224072803705</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.876558482646942</v>
+        <v>3.007984787225723</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.920677683355442</v>
+        <v>4.814104074587831</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.980964660644531</v>
+        <v>0.3580865859985352</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.99230261370355</v>
+        <v>3.758673377773304</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3006668090820312</v>
+        <v>3.7415771484375</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.980964660644531</v>
+        <v>0.3580865859985352</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.920677683355442</v>
+        <v>4.814104074587831</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.980964660644531</v>
+        <v>0.3580865859985352</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3006668090820312</v>
+        <v>3.7415771484375</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.876558482646942</v>
+        <v>3.007984787225723</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.99230261370355</v>
+        <v>3.758673377773304</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.911483312950244</v>
+        <v>3.029224072803705</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.892229111632004</v>
+        <v>4.80076785919618</v>
       </c>
     </row>
   </sheetData>
